--- a/notebook/DNN/result.xlsx
+++ b/notebook/DNN/result.xlsx
@@ -296,8 +296,8 @@
   </sheetPr>
   <dimension ref="A1:T148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J90" activeCellId="0" sqref="J90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T74" activeCellId="0" sqref="T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1785,6 +1785,16 @@
         <v>38.1</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="0" t="n">
+        <f aca="false">SUM(J3:J36)/34</f>
+        <v>26.2</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <f aca="false">SUM(T3:T36)/34</f>
+        <v>33.1529411764706</v>
+      </c>
+    </row>
     <row r="38" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -3199,12 +3209,20 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <f aca="false">SUM(J40:J73)/34</f>
+        <v>39.8</v>
+      </c>
+      <c r="T74" s="0" t="n">
+        <f aca="false">SUM(T40:T73)/34</f>
+        <v>41.4617647058824</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
